--- a/biology/Médecine/Artère_subscapulaire/Artère_subscapulaire.xlsx
+++ b/biology/Médecine/Artère_subscapulaire/Artère_subscapulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_subscapulaire</t>
+          <t>Artère_subscapulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère subscapulaire (ou artère scapulaire inférieure) est l'une des branches de l’artère axillaire. Comme tous les constituants anatomiques dits « subscapulaires » (nerfs, muscle) elle est en avant et en dessous de la concavité de l’omoplate (ou scapula).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_subscapulaire</t>
+          <t>Artère_subscapulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Origine, trajet et terminaison</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’artère subscapulaire émerge de la face médiale de l’artère axillaire au bord inférieur du muscle subscapulaire, en dessous du muscle petit pectoral.
-Assez courte elle se divise rapidement en deux branches donnant d’une part l’artère circonflexe de la scapula qui chemine vers l’arrière et s’anastomose avec l’artère supra-scapulaire et l’artère transverse du cou formant ainsi l’une des boucles d’anatomoses qui entourent la scapula. Et d’autre part l’artère thoraco-dorsale qui suit le bord latéral de la scapula et participe à la vascularisation de la région scapulaire postérieure[1],[2].
+Assez courte elle se divise rapidement en deux branches donnant d’une part l’artère circonflexe de la scapula qui chemine vers l’arrière et s’anastomose avec l’artère supra-scapulaire et l’artère transverse du cou formant ainsi l’une des boucles d’anatomoses qui entourent la scapula. Et d’autre part l’artère thoraco-dorsale qui suit le bord latéral de la scapula et participe à la vascularisation de la région scapulaire postérieure,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_subscapulaire</t>
+          <t>Artère_subscapulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’artère subscapulaire vascularise directement la paroi postérieure (dorsale) de la fosse axillaire à savoir les muscles subscapulaire, grand rond, petit rond et grand dorsal[2].
-Des particularités anatomiques peuvent être décrites comme celle rapportée par Gabriel Lateur où l’artère humérale supérieure est issue de l’artère subscapulaire et non pas de l’artère axillaire, ce qui confère à l’artère subscapulaire un rôle important dans la vascularisation du tendon du muscle subscapulaire et par là dans le fonctionnement de la coiffe des rotateurs[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’artère subscapulaire vascularise directement la paroi postérieure (dorsale) de la fosse axillaire à savoir les muscles subscapulaire, grand rond, petit rond et grand dorsal.
+Des particularités anatomiques peuvent être décrites comme celle rapportée par Gabriel Lateur où l’artère humérale supérieure est issue de l’artère subscapulaire et non pas de l’artère axillaire, ce qui confère à l’artère subscapulaire un rôle important dans la vascularisation du tendon du muscle subscapulaire et par là dans le fonctionnement de la coiffe des rotateurs.
 </t>
         </is>
       </c>
